--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Il11</t>
+  </si>
+  <si>
+    <t>Il11ra1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il11</t>
-  </si>
-  <si>
-    <t>Il11ra1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>4.025202999999999</v>
       </c>
       <c r="I2">
-        <v>0.2468325318068303</v>
+        <v>0.9366615992533147</v>
       </c>
       <c r="J2">
-        <v>0.3286367187168318</v>
+        <v>0.9568636708003468</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.082786</v>
+        <v>2.539516333333333</v>
       </c>
       <c r="N2">
-        <v>9.248358</v>
+        <v>7.618549</v>
       </c>
       <c r="O2">
-        <v>0.05504138895091651</v>
+        <v>0.04854134189833648</v>
       </c>
       <c r="P2">
-        <v>0.05701957962265202</v>
+        <v>0.04870329346000706</v>
       </c>
       <c r="Q2">
-        <v>4.136279818519332</v>
+        <v>3.407356254494111</v>
       </c>
       <c r="R2">
-        <v>37.22651836667399</v>
+        <v>30.66620629044699</v>
       </c>
       <c r="S2">
-        <v>0.01358600538891922</v>
+        <v>0.04546681093239778</v>
       </c>
       <c r="T2">
-        <v>0.01873872754980149</v>
+        <v>0.04660241216020888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>4.025202999999999</v>
       </c>
       <c r="I3">
-        <v>0.2468325318068303</v>
+        <v>0.9366615992533147</v>
       </c>
       <c r="J3">
-        <v>0.3286367187168318</v>
+        <v>0.9568636708003468</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>113.382487</v>
       </c>
       <c r="O3">
-        <v>0.674793251644155</v>
+        <v>0.7224128986701657</v>
       </c>
       <c r="P3">
-        <v>0.6990453597612472</v>
+        <v>0.7248231307019796</v>
       </c>
       <c r="Q3">
         <v>50.70972520220677</v>
@@ -638,10 +638,10 @@
         <v>456.3875268198609</v>
       </c>
       <c r="S3">
-        <v>0.1665609267494903</v>
+        <v>0.6766564209896202</v>
       </c>
       <c r="T3">
-        <v>0.2297319732661635</v>
+        <v>0.6935569215244958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,10 +670,10 @@
         <v>4.025202999999999</v>
       </c>
       <c r="I4">
-        <v>0.2468325318068303</v>
+        <v>0.9366615992533147</v>
       </c>
       <c r="J4">
-        <v>0.3286367187168318</v>
+        <v>0.9568636708003468</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.310705333333334</v>
+        <v>5.768666666666667</v>
       </c>
       <c r="N4">
-        <v>15.932116</v>
+        <v>17.306</v>
       </c>
       <c r="O4">
-        <v>0.09481962025768469</v>
+        <v>0.110264626885331</v>
       </c>
       <c r="P4">
-        <v>0.09822744284113227</v>
+        <v>0.1106325097625391</v>
       </c>
       <c r="Q4">
-        <v>7.125555679949778</v>
+        <v>7.740018124222222</v>
       </c>
       <c r="R4">
-        <v>64.130001119548</v>
+        <v>69.660163118</v>
       </c>
       <c r="S4">
-        <v>0.02340456693316652</v>
+        <v>0.1032806417594841</v>
       </c>
       <c r="T4">
-        <v>0.03228114450325486</v>
+        <v>0.1058602294012383</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>4.025202999999999</v>
       </c>
       <c r="I5">
-        <v>0.2468325318068303</v>
+        <v>0.9366615992533147</v>
       </c>
       <c r="J5">
-        <v>0.3286367187168318</v>
+        <v>0.9568636708003468</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.82934</v>
+        <v>0.5219</v>
       </c>
       <c r="N5">
-        <v>11.65868</v>
+        <v>1.0438</v>
       </c>
       <c r="O5">
-        <v>0.1040795469640564</v>
+        <v>0.00997580759935067</v>
       </c>
       <c r="P5">
-        <v>0.07188011456250079</v>
+        <v>0.006672727013182612</v>
       </c>
       <c r="Q5">
-        <v>7.821425618673333</v>
+        <v>0.7002511485666666</v>
       </c>
       <c r="R5">
-        <v>46.92855371203999</v>
+        <v>4.201506891399999</v>
       </c>
       <c r="S5">
-        <v>0.02569021808644594</v>
+        <v>0.009343955899851169</v>
       </c>
       <c r="T5">
-        <v>0.02362244499081022</v>
+        <v>0.006384890064082548</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>4.025202999999999</v>
       </c>
       <c r="I6">
-        <v>0.2468325318068303</v>
+        <v>0.9366615992533147</v>
       </c>
       <c r="J6">
-        <v>0.3286367187168318</v>
+        <v>0.9568636708003468</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.991513</v>
+        <v>5.692321</v>
       </c>
       <c r="N6">
-        <v>11.974539</v>
+        <v>17.076963</v>
       </c>
       <c r="O6">
-        <v>0.07126619218318742</v>
+        <v>0.1088053249468162</v>
       </c>
       <c r="P6">
-        <v>0.07382750321246777</v>
+        <v>0.1091683390622916</v>
       </c>
       <c r="Q6">
-        <v>5.355550034046332</v>
+        <v>7.637582522054332</v>
       </c>
       <c r="R6">
-        <v>48.19995030641699</v>
+        <v>68.73824269848899</v>
       </c>
       <c r="S6">
-        <v>0.01759081464880829</v>
+        <v>0.1019137696719615</v>
       </c>
       <c r="T6">
-        <v>0.02426242840680177</v>
+        <v>0.1044592176503212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.034833</v>
+        <v>0.09073000000000001</v>
       </c>
       <c r="H7">
-        <v>0.104499</v>
+        <v>0.18146</v>
       </c>
       <c r="I7">
-        <v>0.006408062584988127</v>
+        <v>0.06333840074668527</v>
       </c>
       <c r="J7">
-        <v>0.008531795407384477</v>
+        <v>0.04313632919965303</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.082786</v>
+        <v>2.539516333333333</v>
       </c>
       <c r="N7">
-        <v>9.248358</v>
+        <v>7.618549</v>
       </c>
       <c r="O7">
-        <v>0.05504138895091651</v>
+        <v>0.04854134189833648</v>
       </c>
       <c r="P7">
-        <v>0.05701957962265202</v>
+        <v>0.04870329346000706</v>
       </c>
       <c r="Q7">
-        <v>0.107382684738</v>
+        <v>0.2304103169233333</v>
       </c>
       <c r="R7">
-        <v>0.9664441626420001</v>
+        <v>1.38246190154</v>
       </c>
       <c r="S7">
-        <v>0.000352708665162147</v>
+        <v>0.003074530965938701</v>
       </c>
       <c r="T7">
-        <v>0.000486479387555536</v>
+        <v>0.002100881299798173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.034833</v>
+        <v>0.09073000000000001</v>
       </c>
       <c r="H8">
-        <v>0.104499</v>
+        <v>0.18146</v>
       </c>
       <c r="I8">
-        <v>0.006408062584988127</v>
+        <v>0.06333840074668527</v>
       </c>
       <c r="J8">
-        <v>0.008531795407384477</v>
+        <v>0.04313632919965303</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>113.382487</v>
       </c>
       <c r="O8">
-        <v>0.674793251644155</v>
+        <v>0.7224128986701657</v>
       </c>
       <c r="P8">
-        <v>0.6990453597612472</v>
+        <v>0.7248231307019796</v>
       </c>
       <c r="Q8">
-        <v>1.316484056557</v>
+        <v>3.429064348503334</v>
       </c>
       <c r="R8">
-        <v>11.848356509013</v>
+        <v>20.57438609102</v>
       </c>
       <c r="S8">
-        <v>0.004324117388463388</v>
+        <v>0.04575647768054549</v>
       </c>
       <c r="T8">
-        <v>0.005964111989964438</v>
+        <v>0.03126620917748373</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.034833</v>
+        <v>0.09073000000000001</v>
       </c>
       <c r="H9">
-        <v>0.104499</v>
+        <v>0.18146</v>
       </c>
       <c r="I9">
-        <v>0.006408062584988127</v>
+        <v>0.06333840074668527</v>
       </c>
       <c r="J9">
-        <v>0.008531795407384477</v>
+        <v>0.04313632919965303</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.310705333333334</v>
+        <v>5.768666666666667</v>
       </c>
       <c r="N9">
-        <v>15.932116</v>
+        <v>17.306</v>
       </c>
       <c r="O9">
-        <v>0.09481962025768469</v>
+        <v>0.110264626885331</v>
       </c>
       <c r="P9">
-        <v>0.09822744284113227</v>
+        <v>0.1106325097625391</v>
       </c>
       <c r="Q9">
-        <v>0.184987798876</v>
+        <v>0.5233911266666668</v>
       </c>
       <c r="R9">
-        <v>1.664890189884</v>
+        <v>3.14034676</v>
       </c>
       <c r="S9">
-        <v>0.0006076100608960515</v>
+        <v>0.00698398512584682</v>
       </c>
       <c r="T9">
-        <v>0.0008380564457110936</v>
+        <v>0.004772280361300713</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.034833</v>
+        <v>0.09073000000000001</v>
       </c>
       <c r="H10">
-        <v>0.104499</v>
+        <v>0.18146</v>
       </c>
       <c r="I10">
-        <v>0.006408062584988127</v>
+        <v>0.06333840074668527</v>
       </c>
       <c r="J10">
-        <v>0.008531795407384477</v>
+        <v>0.04313632919965303</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.82934</v>
+        <v>0.5219</v>
       </c>
       <c r="N10">
-        <v>11.65868</v>
+        <v>1.0438</v>
       </c>
       <c r="O10">
-        <v>0.1040795469640564</v>
+        <v>0.00997580759935067</v>
       </c>
       <c r="P10">
-        <v>0.07188011456250079</v>
+        <v>0.006672727013182612</v>
       </c>
       <c r="Q10">
-        <v>0.20305340022</v>
+        <v>0.04735198700000001</v>
       </c>
       <c r="R10">
-        <v>1.21832040132</v>
+        <v>0.189407948</v>
       </c>
       <c r="S10">
-        <v>0.0006669482507628846</v>
+        <v>0.0006318516994995011</v>
       </c>
       <c r="T10">
-        <v>0.0006132664313066143</v>
+        <v>0.0002878369491000627</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.034833</v>
+        <v>0.09073000000000001</v>
       </c>
       <c r="H11">
-        <v>0.104499</v>
+        <v>0.18146</v>
       </c>
       <c r="I11">
-        <v>0.006408062584988127</v>
+        <v>0.06333840074668527</v>
       </c>
       <c r="J11">
-        <v>0.008531795407384477</v>
+        <v>0.04313632919965303</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.991513</v>
+        <v>5.692321</v>
       </c>
       <c r="N11">
-        <v>11.974539</v>
+        <v>17.076963</v>
       </c>
       <c r="O11">
-        <v>0.07126619218318742</v>
+        <v>0.1088053249468162</v>
       </c>
       <c r="P11">
-        <v>0.07382750321246777</v>
+        <v>0.1091683390622916</v>
       </c>
       <c r="Q11">
-        <v>0.139036372329</v>
+        <v>0.51646428433</v>
       </c>
       <c r="R11">
-        <v>1.251327350961</v>
+        <v>3.09878570598</v>
       </c>
       <c r="S11">
-        <v>0.0004566782197036566</v>
+        <v>0.006891555274854758</v>
       </c>
       <c r="T11">
-        <v>0.0006298811528467952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>4.059241</v>
-      </c>
-      <c r="H12">
-        <v>8.118482</v>
-      </c>
-      <c r="I12">
-        <v>0.7467594056081815</v>
-      </c>
-      <c r="J12">
-        <v>0.6628314858757838</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>3.082786</v>
-      </c>
-      <c r="N12">
-        <v>9.248358</v>
-      </c>
-      <c r="O12">
-        <v>0.05504138895091651</v>
-      </c>
-      <c r="P12">
-        <v>0.05701957962265202</v>
-      </c>
-      <c r="Q12">
-        <v>12.513771325426</v>
-      </c>
-      <c r="R12">
-        <v>75.082627952556</v>
-      </c>
-      <c r="S12">
-        <v>0.04110267489683515</v>
-      </c>
-      <c r="T12">
-        <v>0.037794372685295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.059241</v>
-      </c>
-      <c r="H13">
-        <v>8.118482</v>
-      </c>
-      <c r="I13">
-        <v>0.7467594056081815</v>
-      </c>
-      <c r="J13">
-        <v>0.6628314858757838</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>37.79416233333333</v>
-      </c>
-      <c r="N13">
-        <v>113.382487</v>
-      </c>
-      <c r="O13">
-        <v>0.674793251644155</v>
-      </c>
-      <c r="P13">
-        <v>0.6990453597612472</v>
-      </c>
-      <c r="Q13">
-        <v>153.4156133041223</v>
-      </c>
-      <c r="R13">
-        <v>920.493679824734</v>
-      </c>
-      <c r="S13">
-        <v>0.5039082075062012</v>
-      </c>
-      <c r="T13">
-        <v>0.4633492745051193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>4.059241</v>
-      </c>
-      <c r="H14">
-        <v>8.118482</v>
-      </c>
-      <c r="I14">
-        <v>0.7467594056081815</v>
-      </c>
-      <c r="J14">
-        <v>0.6628314858757838</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>5.310705333333334</v>
-      </c>
-      <c r="N14">
-        <v>15.932116</v>
-      </c>
-      <c r="O14">
-        <v>0.09481962025768469</v>
-      </c>
-      <c r="P14">
-        <v>0.09822744284113227</v>
-      </c>
-      <c r="Q14">
-        <v>21.55743282798534</v>
-      </c>
-      <c r="R14">
-        <v>129.344596967912</v>
-      </c>
-      <c r="S14">
-        <v>0.07080744326362211</v>
-      </c>
-      <c r="T14">
-        <v>0.06510824189216632</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>4.059241</v>
-      </c>
-      <c r="H15">
-        <v>8.118482</v>
-      </c>
-      <c r="I15">
-        <v>0.7467594056081815</v>
-      </c>
-      <c r="J15">
-        <v>0.6628314858757838</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>5.82934</v>
-      </c>
-      <c r="N15">
-        <v>11.65868</v>
-      </c>
-      <c r="O15">
-        <v>0.1040795469640564</v>
-      </c>
-      <c r="P15">
-        <v>0.07188011456250079</v>
-      </c>
-      <c r="Q15">
-        <v>23.66269593094</v>
-      </c>
-      <c r="R15">
-        <v>94.65078372376</v>
-      </c>
-      <c r="S15">
-        <v>0.0777223806268476</v>
-      </c>
-      <c r="T15">
-        <v>0.04764440314038396</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.059241</v>
-      </c>
-      <c r="H16">
-        <v>8.118482</v>
-      </c>
-      <c r="I16">
-        <v>0.7467594056081815</v>
-      </c>
-      <c r="J16">
-        <v>0.6628314858757838</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.991513</v>
-      </c>
-      <c r="N16">
-        <v>11.974539</v>
-      </c>
-      <c r="O16">
-        <v>0.07126619218318742</v>
-      </c>
-      <c r="P16">
-        <v>0.07382750321246777</v>
-      </c>
-      <c r="Q16">
-        <v>16.202513221633</v>
-      </c>
-      <c r="R16">
-        <v>97.215079329798</v>
-      </c>
-      <c r="S16">
-        <v>0.05321869931467547</v>
-      </c>
-      <c r="T16">
-        <v>0.04893519365281921</v>
+        <v>0.004709121411970351</v>
       </c>
     </row>
   </sheetData>
